--- a/Data/9) exg_CH_US.xlsx
+++ b/Data/9) exg_CH_US.xlsx
@@ -82,1295 +82,1295 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>43374.0</v>
+        <v>43405.0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.8878</v>
+        <v>6.9329</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="2">
-        <v>43344.0</v>
+        <v>43374.0</v>
       </c>
       <c r="B3" t="n">
-        <v>6.8551</v>
+        <v>6.9191</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="2">
-        <v>43313.0</v>
+        <v>43344.0</v>
       </c>
       <c r="B4" t="n">
-        <v>6.8453</v>
+        <v>6.8551</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="2">
-        <v>43282.0</v>
+        <v>43313.0</v>
       </c>
       <c r="B5" t="n">
-        <v>6.7164</v>
+        <v>6.8453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="2">
-        <v>43252.0</v>
+        <v>43282.0</v>
       </c>
       <c r="B6" t="n">
-        <v>6.4651</v>
+        <v>6.7164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="2">
-        <v>43221.0</v>
+        <v>43252.0</v>
       </c>
       <c r="B7" t="n">
-        <v>6.3701</v>
+        <v>6.4651</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="2">
-        <v>43191.0</v>
+        <v>43221.0</v>
       </c>
       <c r="B8" t="n">
-        <v>6.2967</v>
+        <v>6.3701</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="2">
-        <v>43160.0</v>
+        <v>43191.0</v>
       </c>
       <c r="B9" t="n">
-        <v>6.3174</v>
+        <v>6.2967</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="2">
-        <v>43132.0</v>
+        <v>43160.0</v>
       </c>
       <c r="B10" t="n">
-        <v>6.3183</v>
+        <v>6.3174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="2">
-        <v>43101.0</v>
+        <v>43132.0</v>
       </c>
       <c r="B11" t="n">
-        <v>6.4233</v>
+        <v>6.3183</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="2">
-        <v>43070.0</v>
+        <v>43101.0</v>
       </c>
       <c r="B12" t="n">
-        <v>6.5932</v>
+        <v>6.4233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="2">
-        <v>43040.0</v>
+        <v>43070.0</v>
       </c>
       <c r="B13" t="n">
-        <v>6.62</v>
+        <v>6.5932</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="2">
-        <v>43009.0</v>
+        <v>43040.0</v>
       </c>
       <c r="B14" t="n">
-        <v>6.6254</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="2">
-        <v>42979.0</v>
+        <v>43009.0</v>
       </c>
       <c r="B15" t="n">
-        <v>6.569</v>
+        <v>6.6254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="2">
-        <v>42948.0</v>
+        <v>42979.0</v>
       </c>
       <c r="B16" t="n">
-        <v>6.667</v>
+        <v>6.569</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="2">
-        <v>42917.0</v>
+        <v>42948.0</v>
       </c>
       <c r="B17" t="n">
-        <v>6.7694</v>
+        <v>6.667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="2">
-        <v>42887.0</v>
+        <v>42917.0</v>
       </c>
       <c r="B18" t="n">
-        <v>6.8066</v>
+        <v>6.7694</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="2">
-        <v>42856.0</v>
+        <v>42887.0</v>
       </c>
       <c r="B19" t="n">
-        <v>6.8843</v>
+        <v>6.8066</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="2">
-        <v>42826.0</v>
+        <v>42856.0</v>
       </c>
       <c r="B20" t="n">
-        <v>6.8876</v>
+        <v>6.8843</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="2">
-        <v>42795.0</v>
+        <v>42826.0</v>
       </c>
       <c r="B21" t="n">
-        <v>6.894</v>
+        <v>6.8876</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="2">
-        <v>42767.0</v>
+        <v>42795.0</v>
       </c>
       <c r="B22" t="n">
-        <v>6.8694</v>
+        <v>6.894</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="2">
-        <v>42736.0</v>
+        <v>42767.0</v>
       </c>
       <c r="B23" t="n">
-        <v>6.8907</v>
+        <v>6.8694</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="2">
-        <v>42705.0</v>
+        <v>42736.0</v>
       </c>
       <c r="B24" t="n">
-        <v>6.9198</v>
+        <v>6.8907</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n" s="2">
-        <v>42675.0</v>
+        <v>42705.0</v>
       </c>
       <c r="B25" t="n">
-        <v>6.8402</v>
+        <v>6.9198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n" s="2">
-        <v>42644.0</v>
+        <v>42675.0</v>
       </c>
       <c r="B26" t="n">
-        <v>6.7303</v>
+        <v>6.8402</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n" s="2">
-        <v>42614.0</v>
+        <v>42644.0</v>
       </c>
       <c r="B27" t="n">
-        <v>6.6702</v>
+        <v>6.7303</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n" s="2">
-        <v>42583.0</v>
+        <v>42614.0</v>
       </c>
       <c r="B28" t="n">
-        <v>6.6466</v>
+        <v>6.6702</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="2">
-        <v>42552.0</v>
+        <v>42583.0</v>
       </c>
       <c r="B29" t="n">
-        <v>6.6771</v>
+        <v>6.6466</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="2">
-        <v>42522.0</v>
+        <v>42552.0</v>
       </c>
       <c r="B30" t="n">
-        <v>6.5892</v>
+        <v>6.6771</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="2">
-        <v>42491.0</v>
+        <v>42522.0</v>
       </c>
       <c r="B31" t="n">
-        <v>6.5259</v>
+        <v>6.5892</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="2">
-        <v>42461.0</v>
+        <v>42491.0</v>
       </c>
       <c r="B32" t="n">
-        <v>6.4754</v>
+        <v>6.5259</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="2">
-        <v>42430.0</v>
+        <v>42461.0</v>
       </c>
       <c r="B33" t="n">
-        <v>6.5027</v>
+        <v>6.4754</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="2">
-        <v>42401.0</v>
+        <v>42430.0</v>
       </c>
       <c r="B34" t="n">
-        <v>6.5501</v>
+        <v>6.5027</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="2">
-        <v>42370.0</v>
+        <v>42401.0</v>
       </c>
       <c r="B35" t="n">
-        <v>6.5726</v>
+        <v>6.5501</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="2">
-        <v>42339.0</v>
+        <v>42370.0</v>
       </c>
       <c r="B36" t="n">
-        <v>6.4491</v>
+        <v>6.5726</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="2">
-        <v>42309.0</v>
+        <v>42339.0</v>
       </c>
       <c r="B37" t="n">
-        <v>6.364</v>
+        <v>6.4491</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="2">
-        <v>42278.0</v>
+        <v>42309.0</v>
       </c>
       <c r="B38" t="n">
-        <v>6.3505</v>
+        <v>6.364</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="2">
-        <v>42248.0</v>
+        <v>42278.0</v>
       </c>
       <c r="B39" t="n">
-        <v>6.3676</v>
+        <v>6.3505</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="2">
-        <v>42217.0</v>
+        <v>42248.0</v>
       </c>
       <c r="B40" t="n">
-        <v>6.3383</v>
+        <v>6.3676</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="2">
-        <v>42186.0</v>
+        <v>42217.0</v>
       </c>
       <c r="B41" t="n">
-        <v>6.2085</v>
+        <v>6.3383</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="2">
-        <v>42156.0</v>
+        <v>42186.0</v>
       </c>
       <c r="B42" t="n">
-        <v>6.2052</v>
+        <v>6.2085</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="2">
-        <v>42125.0</v>
+        <v>42156.0</v>
       </c>
       <c r="B43" t="n">
-        <v>6.2035</v>
+        <v>6.2052</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="2">
-        <v>42095.0</v>
+        <v>42125.0</v>
       </c>
       <c r="B44" t="n">
-        <v>6.201</v>
+        <v>6.2035</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="2">
-        <v>42064.0</v>
+        <v>42095.0</v>
       </c>
       <c r="B45" t="n">
-        <v>6.2386</v>
+        <v>6.201</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="2">
-        <v>42036.0</v>
+        <v>42064.0</v>
       </c>
       <c r="B46" t="n">
-        <v>6.2518</v>
+        <v>6.2386</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="2">
-        <v>42005.0</v>
+        <v>42036.0</v>
       </c>
       <c r="B47" t="n">
-        <v>6.2181</v>
+        <v>6.2518</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="2">
-        <v>41974.0</v>
+        <v>42005.0</v>
       </c>
       <c r="B48" t="n">
-        <v>6.1886</v>
+        <v>6.2181</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="2">
-        <v>41944.0</v>
+        <v>41974.0</v>
       </c>
       <c r="B49" t="n">
-        <v>6.1249</v>
+        <v>6.1886</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="2">
-        <v>41913.0</v>
+        <v>41944.0</v>
       </c>
       <c r="B50" t="n">
-        <v>6.1251</v>
+        <v>6.1249</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="2">
-        <v>41883.0</v>
+        <v>41913.0</v>
       </c>
       <c r="B51" t="n">
-        <v>6.1382</v>
+        <v>6.1251</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="2">
-        <v>41852.0</v>
+        <v>41883.0</v>
       </c>
       <c r="B52" t="n">
-        <v>6.1541</v>
+        <v>6.1382</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="2">
-        <v>41821.0</v>
+        <v>41852.0</v>
       </c>
       <c r="B53" t="n">
-        <v>6.1984</v>
+        <v>6.1541</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="2">
-        <v>41791.0</v>
+        <v>41821.0</v>
       </c>
       <c r="B54" t="n">
-        <v>6.2306</v>
+        <v>6.1984</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="2">
-        <v>41760.0</v>
+        <v>41791.0</v>
       </c>
       <c r="B55" t="n">
-        <v>6.238</v>
+        <v>6.2306</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="2">
-        <v>41730.0</v>
+        <v>41760.0</v>
       </c>
       <c r="B56" t="n">
-        <v>6.2246</v>
+        <v>6.238</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="2">
-        <v>41699.0</v>
+        <v>41730.0</v>
       </c>
       <c r="B57" t="n">
-        <v>6.1729</v>
+        <v>6.2246</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="2">
-        <v>41671.0</v>
+        <v>41699.0</v>
       </c>
       <c r="B58" t="n">
-        <v>6.0816</v>
+        <v>6.1729</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="2">
-        <v>41640.0</v>
+        <v>41671.0</v>
       </c>
       <c r="B59" t="n">
-        <v>6.0509</v>
+        <v>6.0816</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="2">
-        <v>41609.0</v>
+        <v>41640.0</v>
       </c>
       <c r="B60" t="n">
-        <v>6.0738</v>
+        <v>6.0509</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="2">
-        <v>41579.0</v>
+        <v>41609.0</v>
       </c>
       <c r="B61" t="n">
-        <v>6.0929</v>
+        <v>6.0738</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="2">
-        <v>41548.0</v>
+        <v>41579.0</v>
       </c>
       <c r="B62" t="n">
-        <v>6.1032</v>
+        <v>6.0929</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="2">
-        <v>41518.0</v>
+        <v>41548.0</v>
       </c>
       <c r="B63" t="n">
-        <v>6.1198</v>
+        <v>6.1032</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="2">
-        <v>41487.0</v>
+        <v>41518.0</v>
       </c>
       <c r="B64" t="n">
-        <v>6.1213</v>
+        <v>6.1198</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="2">
-        <v>41456.0</v>
+        <v>41487.0</v>
       </c>
       <c r="B65" t="n">
-        <v>6.1343</v>
+        <v>6.1213</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="2">
-        <v>41426.0</v>
+        <v>41456.0</v>
       </c>
       <c r="B66" t="n">
-        <v>6.1342</v>
+        <v>6.1343</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="2">
-        <v>41395.0</v>
+        <v>41426.0</v>
       </c>
       <c r="B67" t="n">
-        <v>6.1416</v>
+        <v>6.1342</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n" s="2">
-        <v>41365.0</v>
+        <v>41395.0</v>
       </c>
       <c r="B68" t="n">
-        <v>6.1861</v>
+        <v>6.1416</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n" s="2">
-        <v>41334.0</v>
+        <v>41365.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6.2154</v>
+        <v>6.1861</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="2">
-        <v>41306.0</v>
+        <v>41334.0</v>
       </c>
       <c r="B70" t="n">
-        <v>6.2323</v>
+        <v>6.2154</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="2">
-        <v>41275.0</v>
+        <v>41306.0</v>
       </c>
       <c r="B71" t="n">
-        <v>6.2215</v>
+        <v>6.2323</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="2">
-        <v>41244.0</v>
+        <v>41275.0</v>
       </c>
       <c r="B72" t="n">
-        <v>6.2328</v>
+        <v>6.2215</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="2">
-        <v>41214.0</v>
+        <v>41244.0</v>
       </c>
       <c r="B73" t="n">
-        <v>6.2338</v>
+        <v>6.2328</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="2">
-        <v>41183.0</v>
+        <v>41214.0</v>
       </c>
       <c r="B74" t="n">
-        <v>6.2627</v>
+        <v>6.2338</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n" s="2">
-        <v>41153.0</v>
+        <v>41183.0</v>
       </c>
       <c r="B75" t="n">
-        <v>6.32</v>
+        <v>6.2627</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="2">
-        <v>41122.0</v>
+        <v>41153.0</v>
       </c>
       <c r="B76" t="n">
-        <v>6.3593</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n" s="2">
-        <v>41091.0</v>
+        <v>41122.0</v>
       </c>
       <c r="B77" t="n">
-        <v>6.3717</v>
+        <v>6.3593</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n" s="2">
-        <v>41061.0</v>
+        <v>41091.0</v>
       </c>
       <c r="B78" t="n">
-        <v>6.3633</v>
+        <v>6.3717</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n" s="2">
-        <v>41030.0</v>
+        <v>41061.0</v>
       </c>
       <c r="B79" t="n">
-        <v>6.3242</v>
+        <v>6.3633</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="2">
-        <v>41000.0</v>
+        <v>41030.0</v>
       </c>
       <c r="B80" t="n">
-        <v>6.3043</v>
+        <v>6.3242</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="2">
-        <v>40969.0</v>
+        <v>41000.0</v>
       </c>
       <c r="B81" t="n">
-        <v>6.3125</v>
+        <v>6.3043</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="2">
-        <v>40940.0</v>
+        <v>40969.0</v>
       </c>
       <c r="B82" t="n">
-        <v>6.2997</v>
+        <v>6.3125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n" s="2">
-        <v>40909.0</v>
+        <v>40940.0</v>
       </c>
       <c r="B83" t="n">
-        <v>6.3172</v>
+        <v>6.2997</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n" s="2">
-        <v>40878.0</v>
+        <v>40909.0</v>
       </c>
       <c r="B84" t="n">
-        <v>6.3482</v>
+        <v>6.3172</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n" s="2">
-        <v>40848.0</v>
+        <v>40878.0</v>
       </c>
       <c r="B85" t="n">
-        <v>6.3564</v>
+        <v>6.3482</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n" s="2">
-        <v>40817.0</v>
+        <v>40848.0</v>
       </c>
       <c r="B86" t="n">
-        <v>6.371</v>
+        <v>6.3564</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n" s="2">
-        <v>40787.0</v>
+        <v>40817.0</v>
       </c>
       <c r="B87" t="n">
-        <v>6.3885</v>
+        <v>6.371</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n" s="2">
-        <v>40756.0</v>
+        <v>40787.0</v>
       </c>
       <c r="B88" t="n">
-        <v>6.4036</v>
+        <v>6.3885</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n" s="2">
-        <v>40725.0</v>
+        <v>40756.0</v>
       </c>
       <c r="B89" t="n">
-        <v>6.4575</v>
+        <v>6.4036</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n" s="2">
-        <v>40695.0</v>
+        <v>40725.0</v>
       </c>
       <c r="B90" t="n">
-        <v>6.4746</v>
+        <v>6.4575</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n" s="2">
-        <v>40664.0</v>
+        <v>40695.0</v>
       </c>
       <c r="B91" t="n">
-        <v>6.4957</v>
+        <v>6.4746</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n" s="2">
-        <v>40634.0</v>
+        <v>40664.0</v>
       </c>
       <c r="B92" t="n">
-        <v>6.5267</v>
+        <v>6.4957</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n" s="2">
-        <v>40603.0</v>
+        <v>40634.0</v>
       </c>
       <c r="B93" t="n">
-        <v>6.5645</v>
+        <v>6.5267</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n" s="2">
-        <v>40575.0</v>
+        <v>40603.0</v>
       </c>
       <c r="B94" t="n">
-        <v>6.5761</v>
+        <v>6.5645</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n" s="2">
-        <v>40544.0</v>
+        <v>40575.0</v>
       </c>
       <c r="B95" t="n">
-        <v>6.5964</v>
+        <v>6.5761</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n" s="2">
-        <v>40513.0</v>
+        <v>40544.0</v>
       </c>
       <c r="B96" t="n">
-        <v>6.6497</v>
+        <v>6.5964</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n" s="2">
-        <v>40483.0</v>
+        <v>40513.0</v>
       </c>
       <c r="B97" t="n">
-        <v>6.6538</v>
+        <v>6.6497</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n" s="2">
-        <v>40452.0</v>
+        <v>40483.0</v>
       </c>
       <c r="B98" t="n">
-        <v>6.6678</v>
+        <v>6.6538</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n" s="2">
-        <v>40422.0</v>
+        <v>40452.0</v>
       </c>
       <c r="B99" t="n">
-        <v>6.7396</v>
+        <v>6.6678</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n" s="2">
-        <v>40391.0</v>
+        <v>40422.0</v>
       </c>
       <c r="B100" t="n">
-        <v>6.7873</v>
+        <v>6.7396</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n" s="2">
-        <v>40360.0</v>
+        <v>40391.0</v>
       </c>
       <c r="B101" t="n">
-        <v>6.7762</v>
+        <v>6.7873</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n" s="2">
-        <v>40330.0</v>
+        <v>40360.0</v>
       </c>
       <c r="B102" t="n">
-        <v>6.8184</v>
+        <v>6.7762</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n" s="2">
-        <v>40299.0</v>
+        <v>40330.0</v>
       </c>
       <c r="B103" t="n">
-        <v>6.8275</v>
+        <v>6.8184</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n" s="2">
-        <v>40269.0</v>
+        <v>40299.0</v>
       </c>
       <c r="B104" t="n">
-        <v>6.8256</v>
+        <v>6.8275</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n" s="2">
-        <v>40238.0</v>
+        <v>40269.0</v>
       </c>
       <c r="B105" t="n">
-        <v>6.8262</v>
+        <v>6.8256</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n" s="2">
-        <v>40210.0</v>
+        <v>40238.0</v>
       </c>
       <c r="B106" t="n">
-        <v>6.8285</v>
+        <v>6.8262</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n" s="2">
-        <v>40179.0</v>
+        <v>40210.0</v>
       </c>
       <c r="B107" t="n">
-        <v>6.8269</v>
+        <v>6.8285</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n" s="2">
-        <v>40148.0</v>
+        <v>40179.0</v>
       </c>
       <c r="B108" t="n">
-        <v>6.8275</v>
+        <v>6.8269</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n" s="2">
-        <v>40118.0</v>
+        <v>40148.0</v>
       </c>
       <c r="B109" t="n">
-        <v>6.8271</v>
+        <v>6.8275</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n" s="2">
-        <v>40087.0</v>
+        <v>40118.0</v>
       </c>
       <c r="B110" t="n">
-        <v>6.8267</v>
+        <v>6.8271</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n" s="2">
-        <v>40057.0</v>
+        <v>40087.0</v>
       </c>
       <c r="B111" t="n">
-        <v>6.8277</v>
+        <v>6.8267</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n" s="2">
-        <v>40026.0</v>
+        <v>40057.0</v>
       </c>
       <c r="B112" t="n">
-        <v>6.8323</v>
+        <v>6.8277</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n" s="2">
-        <v>39995.0</v>
+        <v>40026.0</v>
       </c>
       <c r="B113" t="n">
-        <v>6.8317</v>
+        <v>6.8323</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n" s="2">
-        <v>39965.0</v>
+        <v>39995.0</v>
       </c>
       <c r="B114" t="n">
-        <v>6.8334</v>
+        <v>6.8317</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n" s="2">
-        <v>39934.0</v>
+        <v>39965.0</v>
       </c>
       <c r="B115" t="n">
-        <v>6.8235</v>
+        <v>6.8334</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n" s="2">
-        <v>39904.0</v>
+        <v>39934.0</v>
       </c>
       <c r="B116" t="n">
-        <v>6.8306</v>
+        <v>6.8235</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n" s="2">
-        <v>39873.0</v>
+        <v>39904.0</v>
       </c>
       <c r="B117" t="n">
-        <v>6.836</v>
+        <v>6.8306</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n" s="2">
-        <v>39845.0</v>
+        <v>39873.0</v>
       </c>
       <c r="B118" t="n">
-        <v>6.8363</v>
+        <v>6.836</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n" s="2">
-        <v>39814.0</v>
+        <v>39845.0</v>
       </c>
       <c r="B119" t="n">
-        <v>6.836</v>
+        <v>6.8363</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n" s="2">
-        <v>39783.0</v>
+        <v>39814.0</v>
       </c>
       <c r="B120" t="n">
-        <v>6.8539</v>
+        <v>6.836</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n" s="2">
-        <v>39753.0</v>
+        <v>39783.0</v>
       </c>
       <c r="B121" t="n">
-        <v>6.8281</v>
+        <v>6.8539</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n" s="2">
-        <v>39722.0</v>
+        <v>39753.0</v>
       </c>
       <c r="B122" t="n">
-        <v>6.8358</v>
+        <v>6.8281</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n" s="2">
-        <v>39692.0</v>
+        <v>39722.0</v>
       </c>
       <c r="B123" t="n">
-        <v>6.8307</v>
+        <v>6.8358</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n" s="2">
-        <v>39661.0</v>
+        <v>39692.0</v>
       </c>
       <c r="B124" t="n">
-        <v>6.8462</v>
+        <v>6.8307</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n" s="2">
-        <v>39630.0</v>
+        <v>39661.0</v>
       </c>
       <c r="B125" t="n">
-        <v>6.8355</v>
+        <v>6.8462</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n" s="2">
-        <v>39600.0</v>
+        <v>39630.0</v>
       </c>
       <c r="B126" t="n">
-        <v>6.8993</v>
+        <v>6.8355</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n" s="2">
-        <v>39569.0</v>
+        <v>39600.0</v>
       </c>
       <c r="B127" t="n">
-        <v>6.9725</v>
+        <v>6.8993</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n" s="2">
-        <v>39539.0</v>
+        <v>39569.0</v>
       </c>
       <c r="B128" t="n">
-        <v>6.9997</v>
+        <v>6.9725</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n" s="2">
-        <v>39508.0</v>
+        <v>39539.0</v>
       </c>
       <c r="B129" t="n">
-        <v>7.0722</v>
+        <v>6.9997</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n" s="2">
-        <v>39479.0</v>
+        <v>39508.0</v>
       </c>
       <c r="B130" t="n">
-        <v>7.1644</v>
+        <v>7.0722</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n" s="2">
-        <v>39448.0</v>
+        <v>39479.0</v>
       </c>
       <c r="B131" t="n">
-        <v>7.2405</v>
+        <v>7.1644</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n" s="2">
-        <v>39417.0</v>
+        <v>39448.0</v>
       </c>
       <c r="B132" t="n">
-        <v>7.3682</v>
+        <v>7.2405</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n" s="2">
-        <v>39387.0</v>
+        <v>39417.0</v>
       </c>
       <c r="B133" t="n">
-        <v>7.421</v>
+        <v>7.3682</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n" s="2">
-        <v>39356.0</v>
+        <v>39387.0</v>
       </c>
       <c r="B134" t="n">
-        <v>7.5019</v>
+        <v>7.421</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n" s="2">
-        <v>39326.0</v>
+        <v>39356.0</v>
       </c>
       <c r="B135" t="n">
-        <v>7.521</v>
+        <v>7.5019</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n" s="2">
-        <v>39295.0</v>
+        <v>39326.0</v>
       </c>
       <c r="B136" t="n">
-        <v>7.5734</v>
+        <v>7.521</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n" s="2">
-        <v>39264.0</v>
+        <v>39295.0</v>
       </c>
       <c r="B137" t="n">
-        <v>7.5757</v>
+        <v>7.5734</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n" s="2">
-        <v>39234.0</v>
+        <v>39264.0</v>
       </c>
       <c r="B138" t="n">
-        <v>7.6333</v>
+        <v>7.5757</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n" s="2">
-        <v>39203.0</v>
+        <v>39234.0</v>
       </c>
       <c r="B139" t="n">
-        <v>7.6773</v>
+        <v>7.6333</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n" s="2">
-        <v>39173.0</v>
+        <v>39203.0</v>
       </c>
       <c r="B140" t="n">
-        <v>7.7247</v>
+        <v>7.6773</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n" s="2">
-        <v>39142.0</v>
+        <v>39173.0</v>
       </c>
       <c r="B141" t="n">
-        <v>7.7369</v>
+        <v>7.7247</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n" s="2">
-        <v>39114.0</v>
+        <v>39142.0</v>
       </c>
       <c r="B142" t="n">
-        <v>7.7502</v>
+        <v>7.7369</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n" s="2">
-        <v>39083.0</v>
+        <v>39114.0</v>
       </c>
       <c r="B143" t="n">
-        <v>7.7876</v>
+        <v>7.7502</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n" s="2">
-        <v>39052.0</v>
+        <v>39083.0</v>
       </c>
       <c r="B144" t="n">
-        <v>7.8219</v>
+        <v>7.7876</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n" s="2">
-        <v>39022.0</v>
+        <v>39052.0</v>
       </c>
       <c r="B145" t="n">
-        <v>7.8622</v>
+        <v>7.8219</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n" s="2">
-        <v>38991.0</v>
+        <v>39022.0</v>
       </c>
       <c r="B146" t="n">
-        <v>7.9018</v>
+        <v>7.8622</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n" s="2">
-        <v>38961.0</v>
+        <v>38991.0</v>
       </c>
       <c r="B147" t="n">
-        <v>7.9334</v>
+        <v>7.9018</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n" s="2">
-        <v>38930.0</v>
+        <v>38961.0</v>
       </c>
       <c r="B148" t="n">
-        <v>7.9722</v>
+        <v>7.9334</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n" s="2">
-        <v>38899.0</v>
+        <v>38930.0</v>
       </c>
       <c r="B149" t="n">
-        <v>7.9897</v>
+        <v>7.9722</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n" s="2">
-        <v>38869.0</v>
+        <v>38899.0</v>
       </c>
       <c r="B150" t="n">
-        <v>8.0042</v>
+        <v>7.9897</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n" s="2">
-        <v>38838.0</v>
+        <v>38869.0</v>
       </c>
       <c r="B151" t="n">
-        <v>8.0131</v>
+        <v>8.0042</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n" s="2">
-        <v>38808.0</v>
+        <v>38838.0</v>
       </c>
       <c r="B152" t="n">
-        <v>8.0143</v>
+        <v>8.0131</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n" s="2">
-        <v>38777.0</v>
+        <v>38808.0</v>
       </c>
       <c r="B153" t="n">
-        <v>8.035</v>
+        <v>8.0143</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n" s="2">
-        <v>38749.0</v>
+        <v>38777.0</v>
       </c>
       <c r="B154" t="n">
-        <v>8.0512</v>
+        <v>8.035</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n" s="2">
-        <v>38718.0</v>
+        <v>38749.0</v>
       </c>
       <c r="B155" t="n">
-        <v>8.0654</v>
+        <v>8.0512</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n" s="2">
-        <v>38687.0</v>
+        <v>38718.0</v>
       </c>
       <c r="B156" t="n">
-        <v>8.0755</v>
+        <v>8.0654</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n" s="2">
-        <v>38657.0</v>
+        <v>38687.0</v>
       </c>
       <c r="B157" t="n">
-        <v>8.084</v>
+        <v>8.0755</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n" s="2">
-        <v>38626.0</v>
+        <v>38657.0</v>
       </c>
       <c r="B158" t="n">
-        <v>8.0895</v>
+        <v>8.084</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n" s="2">
-        <v>38596.0</v>
+        <v>38626.0</v>
       </c>
       <c r="B159" t="n">
-        <v>8.0919</v>
+        <v>8.0895</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n" s="2">
-        <v>38565.0</v>
+        <v>38596.0</v>
       </c>
       <c r="B160" t="n">
-        <v>8.1017</v>
+        <v>8.0919</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n" s="2">
-        <v>38534.0</v>
+        <v>38565.0</v>
       </c>
       <c r="B161" t="n">
-        <v>8.2264</v>
+        <v>8.1017</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n" s="2">
-        <v>38504.0</v>
+        <v>38534.0</v>
       </c>
       <c r="B162" t="n">
-        <v>8.2765</v>
+        <v>8.2264</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n" s="2">
-        <v>38473.0</v>
+        <v>38504.0</v>
       </c>
       <c r="B163" t="n">
         <v>8.2765</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n" s="2">
-        <v>38443.0</v>
+        <v>38473.0</v>
       </c>
       <c r="B164" t="n">
         <v>8.2765</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n" s="2">
-        <v>38412.0</v>
+        <v>38443.0</v>
       </c>
       <c r="B165" t="n">
         <v>8.2765</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n" s="2">
-        <v>38384.0</v>
+        <v>38412.0</v>
       </c>
       <c r="B166" t="n">
         <v>8.2765</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n" s="2">
-        <v>38353.0</v>
+        <v>38384.0</v>
       </c>
       <c r="B167" t="n">
         <v>8.2765</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n" s="2">
-        <v>38322.0</v>
+        <v>38353.0</v>
       </c>
       <c r="B168" t="n">
         <v>8.2765</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n" s="2">
-        <v>38292.0</v>
+        <v>38322.0</v>
       </c>
       <c r="B169" t="n">
         <v>8.2765</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n" s="2">
-        <v>38261.0</v>
+        <v>38292.0</v>
       </c>
       <c r="B170" t="n">
         <v>8.2765</v>
@@ -1434,31 +1434,31 @@
     </row>
     <row r="171">
       <c r="A171" t="n" s="2">
-        <v>38231.0</v>
+        <v>38261.0</v>
       </c>
       <c r="B171" t="n">
-        <v>8.2767</v>
+        <v>8.2765</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n" s="2">
-        <v>38200.0</v>
+        <v>38231.0</v>
       </c>
       <c r="B172" t="n">
-        <v>8.2768</v>
+        <v>8.2767</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n" s="2">
-        <v>38169.0</v>
+        <v>38200.0</v>
       </c>
       <c r="B173" t="n">
-        <v>8.2767</v>
+        <v>8.2768</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n" s="2">
-        <v>38139.0</v>
+        <v>38169.0</v>
       </c>
       <c r="B174" t="n">
         <v>8.2767</v>
@@ -1466,31 +1466,31 @@
     </row>
     <row r="175">
       <c r="A175" t="n" s="2">
-        <v>38108.0</v>
+        <v>38139.0</v>
       </c>
       <c r="B175" t="n">
-        <v>8.2771</v>
+        <v>8.2767</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n" s="2">
-        <v>38078.0</v>
+        <v>38108.0</v>
       </c>
       <c r="B176" t="n">
-        <v>8.2769</v>
+        <v>8.2771</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n" s="2">
-        <v>38047.0</v>
+        <v>38078.0</v>
       </c>
       <c r="B177" t="n">
-        <v>8.2771</v>
+        <v>8.2769</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n" s="2">
-        <v>38018.0</v>
+        <v>38047.0</v>
       </c>
       <c r="B178" t="n">
         <v>8.2771</v>
@@ -1498,15 +1498,15 @@
     </row>
     <row r="179">
       <c r="A179" t="n" s="2">
-        <v>37987.0</v>
+        <v>38018.0</v>
       </c>
       <c r="B179" t="n">
-        <v>8.277</v>
+        <v>8.2771</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n" s="2">
-        <v>37956.0</v>
+        <v>37987.0</v>
       </c>
       <c r="B180" t="n">
         <v>8.277</v>
@@ -1514,111 +1514,111 @@
     </row>
     <row r="181">
       <c r="A181" t="n" s="2">
-        <v>37926.0</v>
+        <v>37956.0</v>
       </c>
       <c r="B181" t="n">
-        <v>8.2769</v>
+        <v>8.277</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n" s="2">
-        <v>37895.0</v>
+        <v>37926.0</v>
       </c>
       <c r="B182" t="n">
-        <v>8.2768</v>
+        <v>8.2769</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n" s="2">
-        <v>37865.0</v>
+        <v>37895.0</v>
       </c>
       <c r="B183" t="n">
-        <v>8.2772</v>
+        <v>8.2768</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n" s="2">
-        <v>37834.0</v>
+        <v>37865.0</v>
       </c>
       <c r="B184" t="n">
-        <v>8.277</v>
+        <v>8.2772</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n" s="2">
-        <v>37803.0</v>
+        <v>37834.0</v>
       </c>
       <c r="B185" t="n">
-        <v>8.2773</v>
+        <v>8.277</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n" s="2">
-        <v>37773.0</v>
+        <v>37803.0</v>
       </c>
       <c r="B186" t="n">
-        <v>8.2771</v>
+        <v>8.2773</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n" s="2">
-        <v>37742.0</v>
+        <v>37773.0</v>
       </c>
       <c r="B187" t="n">
-        <v>8.2769</v>
+        <v>8.2771</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n" s="2">
-        <v>37712.0</v>
+        <v>37742.0</v>
       </c>
       <c r="B188" t="n">
-        <v>8.2772</v>
+        <v>8.2769</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n" s="2">
-        <v>37681.0</v>
+        <v>37712.0</v>
       </c>
       <c r="B189" t="n">
-        <v>8.2773</v>
+        <v>8.2772</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n" s="2">
-        <v>37653.0</v>
+        <v>37681.0</v>
       </c>
       <c r="B190" t="n">
-        <v>8.278</v>
+        <v>8.2773</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n" s="2">
-        <v>37622.0</v>
+        <v>37653.0</v>
       </c>
       <c r="B191" t="n">
-        <v>8.2775</v>
+        <v>8.278</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n" s="2">
-        <v>37591.0</v>
+        <v>37622.0</v>
       </c>
       <c r="B192" t="n">
-        <v>8.2777</v>
+        <v>8.2775</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n" s="2">
-        <v>37561.0</v>
+        <v>37591.0</v>
       </c>
       <c r="B193" t="n">
-        <v>8.2772</v>
+        <v>8.2777</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n" s="2">
-        <v>37530.0</v>
+        <v>37561.0</v>
       </c>
       <c r="B194" t="n">
         <v>8.2772</v>
@@ -1626,103 +1626,103 @@
     </row>
     <row r="195">
       <c r="A195" t="n" s="2">
-        <v>37500.0</v>
+        <v>37530.0</v>
       </c>
       <c r="B195" t="n">
-        <v>8.277</v>
+        <v>8.2772</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n" s="2">
-        <v>37469.0</v>
+        <v>37500.0</v>
       </c>
       <c r="B196" t="n">
-        <v>8.2767</v>
+        <v>8.277</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n" s="2">
-        <v>37438.0</v>
+        <v>37469.0</v>
       </c>
       <c r="B197" t="n">
-        <v>8.2768</v>
+        <v>8.2767</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n" s="2">
-        <v>37408.0</v>
+        <v>37438.0</v>
       </c>
       <c r="B198" t="n">
-        <v>8.2767</v>
+        <v>8.2768</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n" s="2">
-        <v>37377.0</v>
+        <v>37408.0</v>
       </c>
       <c r="B199" t="n">
-        <v>8.277</v>
+        <v>8.2767</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n" s="2">
-        <v>37347.0</v>
+        <v>37377.0</v>
       </c>
       <c r="B200" t="n">
-        <v>8.2772</v>
+        <v>8.277</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n" s="2">
-        <v>37316.0</v>
+        <v>37347.0</v>
       </c>
       <c r="B201" t="n">
-        <v>8.2773</v>
+        <v>8.2772</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n" s="2">
-        <v>37288.0</v>
+        <v>37316.0</v>
       </c>
       <c r="B202" t="n">
-        <v>8.2767</v>
+        <v>8.2773</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n" s="2">
-        <v>37257.0</v>
+        <v>37288.0</v>
       </c>
       <c r="B203" t="n">
-        <v>8.2771</v>
+        <v>8.2767</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n" s="2">
-        <v>37226.0</v>
+        <v>37257.0</v>
       </c>
       <c r="B204" t="n">
-        <v>8.2764</v>
+        <v>8.2771</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n" s="2">
-        <v>37196.0</v>
+        <v>37226.0</v>
       </c>
       <c r="B205" t="n">
-        <v>8.2769</v>
+        <v>8.2764</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n" s="2">
-        <v>37165.0</v>
+        <v>37196.0</v>
       </c>
       <c r="B206" t="n">
-        <v>8.2768</v>
+        <v>8.2769</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n" s="2">
-        <v>37135.0</v>
+        <v>37165.0</v>
       </c>
       <c r="B207" t="n">
         <v>8.2768</v>
@@ -1730,31 +1730,31 @@
     </row>
     <row r="208">
       <c r="A208" t="n" s="2">
-        <v>37104.0</v>
+        <v>37135.0</v>
       </c>
       <c r="B208" t="n">
-        <v>8.277</v>
+        <v>8.2768</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n" s="2">
-        <v>37073.0</v>
+        <v>37104.0</v>
       </c>
       <c r="B209" t="n">
-        <v>8.2769</v>
+        <v>8.277</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n" s="2">
-        <v>37043.0</v>
+        <v>37073.0</v>
       </c>
       <c r="B210" t="n">
-        <v>8.277</v>
+        <v>8.2769</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n" s="2">
-        <v>37012.0</v>
+        <v>37043.0</v>
       </c>
       <c r="B211" t="n">
         <v>8.277</v>
@@ -1762,63 +1762,63 @@
     </row>
     <row r="212">
       <c r="A212" t="n" s="2">
-        <v>36982.0</v>
+        <v>37012.0</v>
       </c>
       <c r="B212" t="n">
-        <v>8.2771</v>
+        <v>8.277</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n" s="2">
-        <v>36951.0</v>
+        <v>36982.0</v>
       </c>
       <c r="B213" t="n">
-        <v>8.2775</v>
+        <v>8.2771</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n" s="2">
-        <v>36923.0</v>
+        <v>36951.0</v>
       </c>
       <c r="B214" t="n">
-        <v>8.2771</v>
+        <v>8.2775</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n" s="2">
-        <v>36892.0</v>
+        <v>36923.0</v>
       </c>
       <c r="B215" t="n">
-        <v>8.2776</v>
+        <v>8.2771</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n" s="2">
-        <v>36861.0</v>
+        <v>36892.0</v>
       </c>
       <c r="B216" t="n">
-        <v>8.2771</v>
+        <v>8.2776</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n" s="2">
-        <v>36831.0</v>
+        <v>36861.0</v>
       </c>
       <c r="B217" t="n">
-        <v>8.2774</v>
+        <v>8.2771</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n" s="2">
-        <v>36800.0</v>
+        <v>36831.0</v>
       </c>
       <c r="B218" t="n">
-        <v>8.2785</v>
+        <v>8.2774</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n" s="2">
-        <v>36770.0</v>
+        <v>36800.0</v>
       </c>
       <c r="B219" t="n">
         <v>8.2785</v>
@@ -1826,65 +1826,73 @@
     </row>
     <row r="220">
       <c r="A220" t="n" s="2">
-        <v>36739.0</v>
+        <v>36770.0</v>
       </c>
       <c r="B220" t="n">
-        <v>8.2796</v>
+        <v>8.2785</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n" s="2">
-        <v>36708.0</v>
+        <v>36739.0</v>
       </c>
       <c r="B221" t="n">
-        <v>8.2794</v>
+        <v>8.2796</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n" s="2">
-        <v>36678.0</v>
+        <v>36708.0</v>
       </c>
       <c r="B222" t="n">
-        <v>8.2772</v>
+        <v>8.2794</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n" s="2">
-        <v>36647.0</v>
+        <v>36678.0</v>
       </c>
       <c r="B223" t="n">
-        <v>8.2781</v>
+        <v>8.2772</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n" s="2">
-        <v>36617.0</v>
+        <v>36647.0</v>
       </c>
       <c r="B224" t="n">
-        <v>8.2793</v>
+        <v>8.2781</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n" s="2">
-        <v>36586.0</v>
+        <v>36617.0</v>
       </c>
       <c r="B225" t="n">
-        <v>8.2786</v>
+        <v>8.2793</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n" s="2">
-        <v>36557.0</v>
+        <v>36586.0</v>
       </c>
       <c r="B226" t="n">
-        <v>8.2781</v>
+        <v>8.2786</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n" s="2">
+        <v>36557.0</v>
+      </c>
+      <c r="B227" t="n">
+        <v>8.2781</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n" s="2">
         <v>36526.0</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B228" t="n">
         <v>8.2792</v>
       </c>
     </row>
